--- a/biology/Botanique/Tauno_Palon_puisto/Tauno_Palon_puisto.xlsx
+++ b/biology/Botanique/Tauno_Palon_puisto/Tauno_Palon_puisto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Tauno Palo (en finnois : Tauno Palon puisto), est parc du quartier de Kallio à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Tauno Palo (en finnois : Tauno Palon puisto), est parc du quartier de Kallio à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au nord, le parc Tauno Palo borde Helsinginkatu, dont il est séparé par un muret de pierre.
 Au sud et à l'ouest, le parc s'élève sur une pente, où se trouve un escalier, qui s'incurve vers le sud-ouest en direction de l'intersection d'Alppikatu et de Wallininkatu.
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc porte le nom de l'acteur Tauno Palo et il abrite un monument en memoire de Tauno Palo réalisé comme une œuvre d'art environnemental.
 L'ensemble de l'œuvre d'art se compose d'une dalle de granite, d'un relief en bronze, de plantations et d'un bassin d'eau.
@@ -578,7 +594,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La ligne de Tramway 8 passe devant le parc le long d'Helsinginkatu.
 Le parc est situé à mi-chemin entre les arrêts Linnanmäki et Urheilutalo.
